--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1049.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1049.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.92007727149162</v>
+        <v>1.319040656089783</v>
       </c>
       <c r="B1">
-        <v>2.284649833826175</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.955544767745113</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.731904520826816</v>
+        <v>1.472595453262329</v>
       </c>
       <c r="E1">
-        <v>1.463627763752072</v>
+        <v>0.9616091251373291</v>
       </c>
     </row>
   </sheetData>
